--- a/member.xlsx
+++ b/member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="10152"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="ATM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -4544,9 +4543,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -4980,11 +4979,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -5010,7 +5009,7 @@
   <sheetPr/>
   <dimension ref="A1:G466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -5025,9 +5024,9 @@
     <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="5.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.3796296296296" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.3833333333333" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.3796296296296" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.3833333333333" style="2" customWidth="1"/>
     <col min="15" max="15" width="9.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
@@ -14414,11 +14413,11 @@
   <sheetPr/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="4" customWidth="1"/>
     <col min="2" max="3" width="23.75" style="4" customWidth="1"/>
@@ -14940,7 +14939,7 @@
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="46.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="46.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
